--- a/03.crawler/01.RockAuto/file/5.collate/crawler_2-vehicle.xlsx
+++ b/03.crawler/01.RockAuto/file/5.collate/crawler_2-vehicle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,228 +436,218 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>JOIN_MPNTCPC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Part Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>JOIN_MPNTCPC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>Vehicle</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SKP;SK34151;10329;12741365</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FC1013</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1013;5900;920254</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FORD ESCAPE 2001-2006
-MERCURY MARINER 2005-2006</t>
+          <t>FORD TAURUS 1988-1995
+MERCURY SABLE 1988-1995</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SKP;SK34152;10329;12741369</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FC1015</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1015;5900;920257</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FORD E-250 1990-1991
-FORD E-350 1990-2007
-FORD E-450 2000-2007
-FORD E-550 2002-2003
-FORD F-250 SUPER DUTY 2006-2008
-FORD F-350 SUPER DUTY 2006-2008
-FORD F-450 SUPER DUTY 2006-2008
-FORD F-550 SUPER DUTY 2006-2007</t>
+          <t>CHEVROLET ASTRO 1987-1989
+CHEVROLET BLAZER 1989-1995
+CHEVROLET C1500 PICKUP 1990-1995
+CHEVROLET C1500 SUBURBAN 1992-1995
+CHEVROLET C2500 PICKUP 1990-1995
+CHEVROLET C2500 SUBURBAN 1992-1995
+CHEVROLET C3500 PICKUP 1990-1995
+CHEVROLET K1500 PICKUP 1990-1995
+CHEVROLET K1500 SUBURBAN 1992-1995
+CHEVROLET K2500 PICKUP 1990-1995
+CHEVROLET K2500 SUBURBAN 1992-1995
+CHEVROLET K3500 PICKUP 1990-1995
+CHEVROLET R1500 SUBURBAN 1989-1991
+CHEVROLET R2500 SUBURBAN 1989-1991
+CHEVROLET S10 BLAZER 1988-1994
+CHEVROLET S10 PICKUP 1988-1995
+CHEVROLET TAHOE 1995
+CHEVROLET V1500 SUBURBAN 1989-1991
+CHEVROLET V2500 SUBURBAN 1989-1991
+GMC C1500 PICKUP 1990-1995
+GMC C1500 SUBURBAN 1992-1995
+GMC C2500 PICKUP 1990-1995
+GMC C2500 SUBURBAN 1992-1995
+GMC C3500 PICKUP 1990-1995
+GMC JIMMY 1989-1995
+GMC K1500 PICKUP 1990-1995
+GMC K1500 SUBURBAN 1992-1995
+GMC K2500 PICKUP 1990-1995
+GMC K2500 SUBURBAN 1992-1995
+GMC K3500 1990-1995
+GMC R1500 SUBURBAN 1989-1991
+GMC R2500 SUBURBAN 1989-1991
+GMC S15 JIMMY 1988-1991
+GMC S15 PICKUP 1988-1990
+GMC SAFARI 1987-1989
+GMC SONOMA 1991-1995
+GMC SYCLONE 1991
+GMC TYPHOON 1992-1993
+GMC V1500 SUBURBAN 1989-1991
+GMC V2500 SUBURBAN 1989-1991
+GMC YUKON 1992-1995
+OLDSMOBILE BRAVADA 1991-1994</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SKP;SK34153;10329;12741373</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FC1018</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1018;5900;928351</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FORD ESCAPE 2006-2010
-MERCURY MARINER 2006-2010</t>
+          <t>BUICK SKYLARK 1992-1995
+CHEVROLET BERETTA 1990-1996
+CHEVROLET CAVALIER 1990-2002
+CHEVROLET CORSICA 1990-1996
+OLDSMOBILE ACHIEVA 1992-1995
+PONTIAC GRAND AM 1992-1995
+PONTIAC SUNFIRE 1995-2002</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SKP;SK34155;10329;12741377</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FC1024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1024;5900;996398</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FORD MUSTANG 2006-2007</t>
+          <t>CHEVROLET CAMARO 1993-1995
+PONTIAC FIREBIRD 1993-1995</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SKP;SK34156;10329;12741381</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FC1032</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1032;5900;996402</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>FORD MUSTANG 2005-2007</t>
+          <t>CHRYSLER GRAND VOYAGER 2000
+CHRYSLER TOWN &amp; COUNTRY 1996-2000
+CHRYSLER VOYAGER 2000
+DODGE CARAVAN 1996-2000
+DODGE GRAND CARAVAN 1996-2000
+PLYMOUTH GRAND VOYAGER 1996-2000
+PLYMOUTH VOYAGER 1996-2000</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SKP;SK34157;10329;12741385</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FC1036</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1036;5900;996394</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FORD ESCAPE 2001-2006
-MERCURY MARINER 2005-2006</t>
+          <t>CHEVROLET CAMARO 1988-1992
+PONTIAC FIREBIRD 1988-1992</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SKP;SK34158;10329;12490597</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FC1054</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1054;5900;1287779</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FORD EXPLORER 2007-2010
-FORD EXPLORER SPORT TRAC 2007-2009
-FORD FIVE HUNDRED 2007
-FORD FOCUS 2008
-FORD FREESTYLE 2005-2007
-FORD TAURUS 2008-2009
-MERCURY MONTEGO 2007
-MERCURY MOUNTAINEER 2007-2010
-MERCURY SABLE 2008-2009</t>
+          <t>CHEVROLET C1500 PICKUP 1996-1998
+CHEVROLET C1500 SUBURBAN 1996-1999
+CHEVROLET C2500 PICKUP 1996-2000
+CHEVROLET C2500 SUBURBAN 1996-1999
+CHEVROLET C3500 PICKUP 1996-2000
+CHEVROLET K1500 PICKUP 1996-1998
+CHEVROLET K1500 SUBURBAN 1996-1999
+CHEVROLET K2500 PICKUP 1996-2000
+CHEVROLET K2500 SUBURBAN 1996-1999
+CHEVROLET K3500 PICKUP 1996-2000
+CHEVROLET P30 1996-1999
+CHEVROLET TAHOE 1996-1999
+GMC C1500 PICKUP 1996-1997
+GMC C1500 SUBURBAN 1996-1999
+GMC C2500 PICKUP 1996-2000
+GMC C2500 SUBURBAN 1996-1999
+GMC C3500 PICKUP 1996-2000
+GMC K1500 PICKUP 1996-1998
+GMC K1500 SUBURBAN 1996-1999
+GMC K2500 PICKUP 1996-2000
+GMC K2500 SUBURBAN 1996-1999
+GMC K3500 1996-2000
+GMC P3500 1996-1999
+GMC YUKON 1996-1997
+WORKHORSE FASTRACK FT1801 2002
+WORKHORSE FASTRACK FT1802 2002</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SKP;SK34159;10329;12490601</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FC1055</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1055;5900;1287780</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>FORD EXPLORER 2005-2007
-FORD TAURUS 2004-2007
-MERCURY MOUNTAINEER 2005-2007
-MERCURY SABLE 2004-2005</t>
+          <t>FORD MUSTANG 1994-1995</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SKP;SK34161;10329;12741389</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FC1058</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1058;5900;1287796</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>FORD EXPLORER 2005-2010
-FORD EXPLORER SPORT TRAC 2007-2010
-FORD FREESTYLE 2005-2007
-FORD TAURUS 2006-2011
-MERCURY MOUNTAINEER 2004-2010
-MERCURY SABLE 2008-2009</t>
+          <t>CHEVROLET ASTRO 1995
+GMC SAFARI 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SKP;SK34162;10329;12490605</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CADILLAC ALLANTE 1987-1988
+CADILLAC DEVILLE 1985-1987
+CADILLAC ELDORADO 1986-1988
+CADILLAC FLEETWOOD 1985-1987
+CADILLAC SEVILLE 1986-1988</t>
         </is>
       </c>
     </row>
